--- a/learning rate parameter turning.xlsx
+++ b/learning rate parameter turning.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$308</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="207">
   <si>
     <t>alpha</t>
   </si>
@@ -33,6 +37,618 @@
   </si>
   <si>
     <t>avg. steps to goal</t>
+  </si>
+  <si>
+    <t>success rate</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 0</t>
+  </si>
+  <si>
+    <t>Environment.act(): Primary agent has reached destination!</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Primary agent could not reach destination within deadline!</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 1</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 2</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 3</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 4</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 5</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 6</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 7</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 8</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 9</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 10</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 11</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 12</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 13</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 14</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 15</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 2), destination = (3, 6), deadline = 30</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 16</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 17</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 18</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 19</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 20</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 21</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 22</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 23</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 24</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 25</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 26</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 27</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 28</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 1), destination = (1, 4), deadline = 50</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 29</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 30</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 31</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 32</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 4), destination = (6, 3), deadline = 25</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 33</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 34</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 6), destination = (4, 1), deadline = 45</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 35</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 36</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 37</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 38</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 39</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 40</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 41</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 42</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 43</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 44</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 45</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 46</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 47</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 48</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 49</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 50</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 51</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 52</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 53</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 54</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 55</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 56</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 57</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 58</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 59</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 60</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 61</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 1), destination = (6, 6), deadline = 50</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 62</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 63</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 64</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 65</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 66</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 67</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 68</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 69</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 70</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 71</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 72</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 73</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 74</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 1), destination = (8, 3), deadline = 45</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 75</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 76</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 77</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 78</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 79</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 80</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 81</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 82</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 83</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 84</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 85</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 86</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 87</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 88</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 89</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 90</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 91</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 92</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 93</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 94</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 95</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 96</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 97</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 98</t>
+  </si>
+  <si>
+    <t>Simulator.run(): Trial 99</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 2), destination = (5, 3), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 5), destination = (8, 3), deadline = 45</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 2), destination = (6, 5), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 2), destination = (5, 6), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 2), destination = (6, 6), deadline = 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; </t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 1), destination = (5, 6), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 4), destination = (8, 4), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 5), destination = (2, 2), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 5), destination = (4, 6), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 1), destination = (1, 1), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 5), destination = (1, 2), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 5), destination = (2, 6), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 2), destination = (8, 4), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 6), destination = (4, 3), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 3), destination = (2, 4), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 5), destination = (1, 1), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 1), destination = (6, 6), deadline = 45</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 1), destination = (7, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 2), destination = (7, 5), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 2), destination = (6, 3), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 2), destination = (2, 1), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 6), destination = (2, 1), deadline = 50</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 6), destination = (3, 6), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 3), destination = (3, 5), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 5), destination = (1, 1), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 1), destination = (7, 6), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 5), destination = (8, 2), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 3), destination = (2, 1), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 4), destination = (5, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 6), destination = (2, 3), deadline = 45</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 2), destination = (8, 1), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 1), destination = (8, 4), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 2), destination = (7, 6), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 4), destination = (3, 1), deadline = 40</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 4), destination = (5, 2), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 1), destination = (2, 5), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 4), destination = (2, 5), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 1), destination = (3, 5), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 2), destination = (1, 5), deadline = 40</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 3), destination = (5, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 4), destination = (5, 6), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 2), destination = (7, 2), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 1), destination = (2, 2), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 4), destination = (8, 6), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 1), destination = (6, 4), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 3), destination = (3, 3), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 6), destination = (8, 4), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 1), destination = (4, 4), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 5), destination = (3, 1), deadline = 45</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 6), destination = (1, 4), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 1), destination = (6, 2), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 2), destination = (6, 4), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 2), destination = (6, 6), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 4), destination = (5, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 5), destination = (4, 1), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 5), destination = (2, 4), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 3), destination = (8, 3), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 3), destination = (1, 3), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 1), destination = (2, 5), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 3), destination = (1, 2), deadline = 40</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 3), destination = (4, 6), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 3), destination = (3, 6), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 1), destination = (2, 4), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 2), destination = (8, 4), deadline = 40</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 4), destination = (4, 2), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 3), destination = (5, 5), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 4), destination = (7, 1), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 2), destination = (5, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 1), destination = (1, 4), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 3), destination = (6, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 1), destination = (5, 6), deadline = 40</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 1), destination = (4, 5), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 6), destination = (7, 2), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 4), destination = (8, 2), deadline = 45</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 6), destination = (8, 4), deadline = 40</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 3), destination = (2, 6), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 3), destination = (3, 1), deadline = 35</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (8, 1), destination = (4, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 4), destination = (3, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 2), destination = (2, 6), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 2), destination = (4, 6), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 4), destination = (6, 6), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (6, 1), destination = (1, 2), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 2), destination = (2, 3), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (7, 4), destination = (2, 5), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (5, 5), destination = (6, 2), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 5), destination = (5, 6), deadline = 25</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 4), destination = (5, 2), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (2, 3), destination = (4, 1), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (1, 4), destination = (5, 6), deadline = 30</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (3, 1), destination = (2, 4), deadline = 20</t>
+  </si>
+  <si>
+    <t>Environment.reset(): Trial set up with start = (4, 1), destination = (7, 6), deadline = 40</t>
+  </si>
+  <si>
+    <t>Average Number of Steps to Goal, inputs = 18.78</t>
+  </si>
+  <si>
+    <t>Average Net Reward, inputs = 31.77</t>
   </si>
 </sst>
 </file>
@@ -82,6 +698,1147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg. net reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg. steps to goal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>success rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2134282096"/>
+        <c:axId val="2137254272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2134282096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137254272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137254272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134282096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -358,7 +2115,7 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,82 +2125,1703 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
-        <v>32.6</v>
+        <v>30.86</v>
       </c>
       <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.72</v>
+      </c>
+      <c r="E2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
-        <v>31.4</v>
+        <v>33.695</v>
       </c>
       <c r="C3">
-        <v>18.190000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.95</v>
+      </c>
+      <c r="E3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>32.29</v>
+        <v>32.395000000000003</v>
       </c>
       <c r="C4">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.25</v>
+      </c>
+      <c r="E4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>29.524999999999999</v>
+      </c>
+      <c r="C5">
+        <v>15.95</v>
+      </c>
+      <c r="E5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>29.524999999999999</v>
+      </c>
+      <c r="C6">
+        <v>17.07</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>31.77</v>
+      </c>
+      <c r="C7">
+        <v>18.78</v>
+      </c>
+      <c r="E7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>30.905000000000001</v>
+      </c>
+      <c r="C8">
+        <v>18.47</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>31.515000000000001</v>
       </c>
       <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.43</v>
+      </c>
+      <c r="E9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>31.925000000000001</v>
+      </c>
+      <c r="C10">
+        <v>18.66</v>
+      </c>
+      <c r="E10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="B11">
+        <v>33.375</v>
+      </c>
+      <c r="C11">
+        <v>20.86</v>
+      </c>
+      <c r="E11">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:A308"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="308" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <autoFilter ref="A1:A308">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Environment.act(): Primary agent has reached destination!"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>